--- a/Forage_Fish_Stable_Isotope_Data_2013_2015_Final.xlsx
+++ b/Forage_Fish_Stable_Isotope_Data_2013_2015_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-edi-packages/nes-lter-fish-stable-isotope/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Desktop/nes-lter-fish-diet-isotope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1303B6-40B6-8048-8AFA-1F0A37142EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82D61B8-0536-B940-9B6A-15ACBA016A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14260" windowHeight="14700" activeTab="1" xr2:uid="{4E1CE223-B047-476F-8338-384CDFD8DE84}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20580" windowHeight="14740" activeTab="1" xr2:uid="{4E1CE223-B047-476F-8338-384CDFD8DE84}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="108">
   <si>
     <t>Cruise</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>unit</t>
-  </si>
-  <si>
-    <t>dC_corr</t>
   </si>
   <si>
     <t>Date</t>
@@ -337,9 +334,6 @@
     <t>Common name of fish specimen</t>
   </si>
   <si>
-    <t>To be determined</t>
-  </si>
-  <si>
     <t>Carbon-13 to Carbon-12 isotopic ratio in delta noation</t>
   </si>
   <si>
@@ -353,6 +347,18 @@
   </si>
   <si>
     <t>uhhh</t>
+  </si>
+  <si>
+    <t>d13C_corr</t>
+  </si>
+  <si>
+    <t>averageDepth</t>
+  </si>
+  <si>
+    <t>Unique number for fish specimen</t>
+  </si>
+  <si>
+    <t>Average depth of seafloor during sample event</t>
   </si>
 </sst>
 </file>
@@ -13858,10 +13864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4F759-8EA2-3B4B-AF43-17E18264D483}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13889,13 +13895,13 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
         <v>96</v>
-      </c>
-      <c r="H1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -13903,13 +13909,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -13917,16 +13923,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -13934,13 +13940,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -13951,13 +13957,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -13968,13 +13974,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -13985,13 +13991,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -13999,16 +14005,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -14016,158 +14022,166 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
         <v>98</v>
       </c>
-      <c r="C17" t="s">
-        <v>99</v>
-      </c>
       <c r="D17" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -14187,207 +14201,207 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>56</v>
-      </c>
-      <c r="J1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>65</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
         <v>70</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
         <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
         <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>81</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
         <v>84</v>
-      </c>
-      <c r="I6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>87</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" t="s">
         <v>89</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
         <v>90</v>
-      </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="G8" t="s">
         <v>93</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
         <v>94</v>
-      </c>
-      <c r="I8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
